--- a/public/excel/partidos.xlsx
+++ b/public/excel/partidos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Inst Dep Pepe Armas</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Tirma BSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heidelberg </t>
   </si>
   <si>
     <t>Evecan</t>
@@ -99,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +121,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +185,7 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,14 +485,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>43563.75</v>
       </c>
       <c r="B1" s="2">
         <v>2050631</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -510,7 +513,7 @@
         <v>2065375</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -531,13 +534,13 @@
         <v>2065294</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -552,13 +555,13 @@
         <v>2065376</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -573,13 +576,13 @@
         <v>2051540</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -594,13 +597,13 @@
         <v>2051438</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -615,13 +618,13 @@
         <v>2089035</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
